--- a/personal space(program)/accountBook.xlsx
+++ b/personal space(program)/accountBook.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0152C158-8511-4657-9AEE-4207FC5AB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF43C4-64F0-498B-A647-F418A1F89C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22944" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.07" sheetId="1" r:id="rId1"/>
+    <sheet name="2023.08" sheetId="3" r:id="rId2"/>
+    <sheet name="年度总结" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +94,14 @@
     <t>玩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>合计（）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2+3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +126,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,8 +139,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -137,11 +154,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,11 +181,23 @@
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="62">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -261,14 +299,156 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,24 +464,54 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:M34" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:M33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="25" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="24" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="23" totalsRowDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="22" totalsRowDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="21" totalsRowDxfId="8"/>
-    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="20" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="19" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="18" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="17" totalsRowDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="16" totalsRowDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="13" totalsRowDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="38" totalsRowDxfId="37"/>
+    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="34" totalsRowDxfId="33"/>
+    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="32" totalsRowDxfId="31">
+      <calculatedColumnFormula>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28979AE8-8FE8-4D5C-A353-102BE1BAAE12}" name="表2_2" displayName="表2_2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{8EFDB2AF-8F71-473F-952D-5B3939994D62}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{67957270-9623-4926-BD21-279E13650B9D}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{CF94BF01-577B-4D56-9718-2A882C67816C}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{9AC0B1D1-A18C-408F-B2A5-F84F037716A3}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A686B635-30A8-4007-8CF3-3DB3011DAF77}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{6CFBBB07-C37C-4D79-A12C-414587534DA0}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{24D9EDA0-727A-46BE-80BC-74C02A3CB95E}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{0E84B44C-BDDA-4215-B9F4-774FF36E7966}" name="房租" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{54FCCFC1-3319-44AA-AC44-A145B99BE9C0}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{8343B566-6FA6-4DE5-83A7-C25582E57B8F}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{890B9F61-AE91-4F7B-B12A-0E9647351958}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{6351BEBD-EE7C-4CBA-B22C-DB27DC0C3AE5}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{CADD3192-7B6B-481D-A759-D50120453C7E}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{A2A2A465-6515-47EA-A81E-495686796A22}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+      <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -570,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -586,7 +796,7 @@
     <col min="29" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,8 +836,11 @@
       <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>45108</v>
       </c>
@@ -653,18 +866,22 @@
         <v>44.064516129032256</v>
       </c>
       <c r="I2" s="3">
-        <f>49.9+19.96+9.98</f>
-        <v>79.84</v>
+        <f>49.9+19.96+9.98+1.33</f>
+        <v>81.17</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>286.10451612903228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>287.43451612903226</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>162.19999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45109</v>
       </c>
@@ -689,8 +906,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>62.064516129032256</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>45110</v>
       </c>
@@ -719,8 +940,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>215.35451612903225</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>171.29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>45111</v>
       </c>
@@ -753,8 +978,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>117.26451612903226</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>45112</v>
       </c>
@@ -782,8 +1011,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>73.664516129032251</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>29.599999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>45113</v>
       </c>
@@ -811,8 +1044,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>115.76451612903226</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>45114</v>
       </c>
@@ -823,7 +1060,9 @@
       <c r="C8" s="3">
         <v>3.5</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>200</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3">
         <v>2</v>
@@ -838,10 +1077,14 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>162.96451612903226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>362.96451612903223</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>318.89999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>45115</v>
       </c>
@@ -868,8 +1111,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>88.064516129032256</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>45116</v>
       </c>
@@ -901,8 +1148,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>217.62451612903226</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>173.56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>45117</v>
       </c>
@@ -937,8 +1188,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>333.56451612903226</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>254.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>45118</v>
       </c>
@@ -969,8 +1224,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>98.964516129032262</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>54.900000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>45119</v>
       </c>
@@ -998,8 +1257,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>66.664516129032251</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>22.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>45120</v>
       </c>
@@ -1028,8 +1291,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>116.71451612903226</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>72.650000000000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>45121</v>
       </c>
@@ -1059,8 +1326,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>79.15451612903226</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>35.090000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>45122</v>
       </c>
@@ -1088,8 +1359,12 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>1665.9445161290323</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>1621.88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45123</v>
       </c>
@@ -1113,15 +1388,27 @@
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
         <v>65.664516129032251</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>21.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45124</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="B18" s="3">
+        <f>10.3+2.5+21.56</f>
+        <v>34.36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>2</v>
+      </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <f>1</f>
+        <v>1</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
@@ -1133,17 +1420,28 @@
       <c r="L18" s="3"/>
       <c r="M18" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81.424516129032256</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>37.36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>45125</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="B19" s="3">
+        <f>3.8+2.5+10.42</f>
+        <v>16.72</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3</v>
+      </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>3.99</v>
+      </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
@@ -1155,16 +1453,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67.774516129032264</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>23.710000000000008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>45126</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3">
+        <f>4.5+2.5+64</f>
+        <v>71</v>
+      </c>
+      <c r="C20" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="D20" s="3">
+        <v>30</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -1177,40 +1486,64 @@
       <c r="L20" s="3"/>
       <c r="M20" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>153.56451612903226</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>109.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>45127</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="B21" s="3">
+        <f>16.7+14.5+2.9+30</f>
+        <v>64.099999999999994</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="3">
+        <v>16</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3">
         <v>44.064516129032256</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>10</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>136.16451612903225</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>92.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45128</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="B22" s="3">
+        <f>5+12.99+10</f>
+        <v>27.990000000000002</v>
+      </c>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="3">
+        <v>8.8800000000000008</v>
+      </c>
       <c r="G22" s="3"/>
       <c r="H22" s="3">
         <v>44.064516129032256</v>
@@ -1221,14 +1554,20 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>86.934516129032261</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>42.870000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>45129</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="3">
+        <v>17.7</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1243,19 +1582,34 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+        <v>61.764516129032259</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>17.700000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>45130</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="B24" s="3">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="C24" s="3">
+        <f>4+17.3</f>
+        <v>21.3</v>
+      </c>
       <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="E24" s="3">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3">
+        <v>7</v>
+      </c>
+      <c r="G24" s="3">
+        <v>6.5</v>
+      </c>
       <c r="H24" s="3">
         <v>44.064516129032256</v>
       </c>
@@ -1265,17 +1619,28 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>127.96451612903226</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>45131</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <f>9.3+2.5+1+25.55</f>
+        <v>38.35</v>
+      </c>
+      <c r="C25" s="3">
+        <v>2</v>
+      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="E25" s="3">
+        <v>32.799999999999997</v>
+      </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3">
@@ -1287,16 +1652,27 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117.21451612903226</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>73.150000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45132</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="B26" s="3">
+        <f>7.5+2.5+5+8.5+7</f>
+        <v>30.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15</v>
+      </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1305,19 +1681,30 @@
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="3">
+        <v>2</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>98.564516129032256</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45133</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <f>3.8+9.5+14.9+25.99+16.4</f>
+        <v>70.59</v>
+      </c>
+      <c r="C27" s="3">
+        <v>3</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1331,16 +1718,25 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>117.65451612903226</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>73.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45134</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <f>9.8+25+20+2.5+5</f>
+        <v>62.3</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>20</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -1353,18 +1749,29 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>126.36451612903225</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45135</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3">
+        <f>3.5+15.9</f>
+        <v>19.399999999999999</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="3">
+        <v>2</v>
+      </c>
+      <c r="F29" s="3">
+        <v>16</v>
+      </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3">
         <v>44.064516129032256</v>
@@ -1375,16 +1782,28 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>81.464516129032262</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>37.400000000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45136</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="B30" s="3">
+        <f>15+20+25+4.5+12.5+2+17</f>
+        <v>96</v>
+      </c>
+      <c r="C30" s="3">
+        <f>13+15</f>
+        <v>28</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12.6</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -1397,14 +1816,21 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>180.66451612903225</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>136.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45137</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3">
+        <f>6.67+4</f>
+        <v>10.67</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1419,15 +1845,24 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54.734516129032258</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>10.670000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45138</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3">
+        <f>4+2.5+18</f>
+        <v>24.5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1441,36 +1876,40 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3">
         <f>SUM(表2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>44.064516129032256</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75.564516129032256</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>547.25</v>
+        <v>1150.5300000000002</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="0">SUM(C2:C32)</f>
-        <v>159.19999999999999</v>
+        <v>249</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>124.39</v>
+        <v>401.99</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>2022.63</v>
+        <v>2092.42</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
-        <v>49</v>
+        <v>96.88</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>33.5</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
@@ -1478,7 +1917,7 @@
       </c>
       <c r="I33" s="3">
         <f t="shared" si="0"/>
-        <v>114.84</v>
+        <v>116.17</v>
       </c>
       <c r="J33" s="3">
         <f>SUM(J2:J32)</f>
@@ -1486,18 +1925,22 @@
       </c>
       <c r="K33" s="3">
         <f>SUM(K2:K32)</f>
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L33" s="3">
         <f>SUM(L2:L32)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>4426.5099999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5534.6899999999987</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</f>
+        <v>4052.5199999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -1510,16 +1953,1172 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>4426.5099999999993</v>
+        <v>5534.69</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E4A41-0545-4E98-A165-FDDA4B913E86}">
+  <dimension ref="A1:P34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.77734375" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B2" s="3">
+        <f>9.8+2.25</f>
+        <v>12.05</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <f>46.5+194</f>
+        <v>240.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>91.33</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>1270/31</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I2" s="3">
+        <v>70</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>454.8477419354839</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>343.88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45140</v>
+      </c>
+      <c r="B3" s="3">
+        <f>2.8+6+2.5+23.81</f>
+        <v>35.11</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H32" si="0">1270/31</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>76.077741935483871</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>35.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45141</v>
+      </c>
+      <c r="B4" s="3">
+        <f>2.8+2.5+5.79</f>
+        <v>11.09</v>
+      </c>
+      <c r="C4" s="3">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>71.65774193548387</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>30.689999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45142</v>
+      </c>
+      <c r="B5" s="3">
+        <f>30+25.82</f>
+        <v>55.82</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>96.787741935483865</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>55.819999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45143</v>
+      </c>
+      <c r="B6" s="3">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="C6" s="3">
+        <f>6+12</f>
+        <v>18</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>219.66774193548386</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>178.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45144</v>
+      </c>
+      <c r="B7" s="3">
+        <v>16.23</v>
+      </c>
+      <c r="C7" s="3">
+        <f>15+4+6</f>
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>7.66</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>112.85774193548387</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>71.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45145</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>96.467741935483872</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45146</v>
+      </c>
+      <c r="B9" s="3">
+        <f>9.8+2.5+5</f>
+        <v>17.3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>88.267741935483869</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45147</v>
+      </c>
+      <c r="B10" s="3">
+        <f>22+3.8</f>
+        <v>25.8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>78.767741935483869</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45148</v>
+      </c>
+      <c r="B11" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>200</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I11" s="3">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>326.86774193548388</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>221.89999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45149</v>
+      </c>
+      <c r="B12" s="3">
+        <f>3.8+13.36</f>
+        <v>17.16</v>
+      </c>
+      <c r="C12" s="3">
+        <v>20.87</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>16</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>109.99774193548387</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>69.03</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45150</v>
+      </c>
+      <c r="B13" s="3">
+        <v>37.19</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>27.98</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>106.13774193548387</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>65.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45151</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30.7</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>118.66774193548387</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>77.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45152</v>
+      </c>
+      <c r="B15" s="3">
+        <f>3.8+12.9+41.2+17.89+2</f>
+        <v>77.790000000000006</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>126.25774193548388</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>85.29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45153</v>
+      </c>
+      <c r="B16" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3">
+        <v>8.5</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>64.267741935483869</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>23.299999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45154</v>
+      </c>
+      <c r="B17" s="3">
+        <f>7.4+21.7+2.5</f>
+        <v>31.6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>8</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>80.567741935483866</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>39.599999999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45155</v>
+      </c>
+      <c r="B18" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="C18" s="3">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>62.767741935483869</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>21.799999999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45156</v>
+      </c>
+      <c r="B19" s="3">
+        <f>7.3+27.4+23.9</f>
+        <v>58.599999999999994</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>105.06774193548387</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>64.099999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45157</v>
+      </c>
+      <c r="B20" s="3">
+        <f>93+10+8+46</f>
+        <v>157</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <f>14.9+19+38+93+10+8.9+46</f>
+        <v>229.8</v>
+      </c>
+      <c r="E20" s="3">
+        <v>80</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>507.76774193548385</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>466.79999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45158</v>
+      </c>
+      <c r="B21" s="3">
+        <f>9+5+12+15+15</f>
+        <v>56</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <f>9+5+12+15+15</f>
+        <v>56</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>152.96774193548387</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45159</v>
+      </c>
+      <c r="B22" s="3">
+        <f>6+18+5</f>
+        <v>29</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <f>6+18+13</f>
+        <v>37</v>
+      </c>
+      <c r="E22" s="3">
+        <v>9</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>115.96774193548387</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45160</v>
+      </c>
+      <c r="B23" s="3">
+        <f>8.3+15</f>
+        <v>23.3</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>18.5</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>27.23</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>109.99774193548387</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>69.03</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45161</v>
+      </c>
+      <c r="B24" s="3">
+        <f>3.9+23.3+4+3</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="C24" s="3">
+        <v>5</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>80.167741935483875</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>39.200000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45162</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>450</v>
+      </c>
+      <c r="M25" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>490.9677419354839</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45163</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45164</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45165</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45166</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45167</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45168</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>45169</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3">
+        <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>40.967741935483872</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="3">
+        <f>SUM(B2:B32)</f>
+        <v>898.64</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
+        <v>140.87</v>
+      </c>
+      <c r="D33" s="3">
+        <f>SUM(D2:D32)</f>
+        <v>868.40000000000009</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="1"/>
+        <v>303.30999999999995</v>
+      </c>
+      <c r="F33" s="3">
+        <f>SUM(F2:F32)</f>
+        <v>66.89</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="1"/>
+        <v>8.5</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="1"/>
+        <v>1270.0000000000007</v>
+      </c>
+      <c r="I33" s="3">
+        <f t="shared" si="1"/>
+        <v>134</v>
+      </c>
+      <c r="J33" s="3">
+        <f>SUM(J2:J32)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <f>SUM(K2:K32)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <f>SUM(L2:L32)</f>
+        <v>450</v>
+      </c>
+      <c r="M33" s="5">
+        <f>SUM(M2:M32)</f>
+        <v>4140.6100000000006</v>
+      </c>
+      <c r="N33" s="3">
+        <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
+        <v>2736.6099999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3">
+        <f>SUM(B33:L33)</f>
+        <v>4140.6100000000006</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N32">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A621-BEBB-4D1D-8745-086E36D656C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/personal space(program)/accountBook.xlsx
+++ b/personal space(program)/accountBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode1\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF43C4-64F0-498B-A647-F418A1F89C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AF79A4-F5A5-48F7-9A53-82F64AFDA66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="年度总结" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +95,6 @@
   </si>
   <si>
     <t>合计（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1976,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E4A41-0545-4E98-A165-FDDA4B913E86}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2741,8 +2736,9 @@
         <f>8.3+15</f>
         <v>23.3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
+      <c r="C23" s="3">
+        <f>2+3</f>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>18.5</v>
@@ -2762,11 +2758,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>109.99774193548387</v>
+        <v>114.99774193548387</v>
       </c>
       <c r="N23" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>69.03</v>
+        <v>74.03</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2805,8 +2801,13 @@
       <c r="A25" s="1">
         <v>45162</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <f>1.5+4+2+32.3+20</f>
+        <v>59.8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2823,18 +2824,21 @@
       </c>
       <c r="M25" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>490.9677419354839</v>
+        <v>558.76774193548385</v>
       </c>
       <c r="N25" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>450</v>
+        <v>517.79999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45163</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <f>2.8+3+13.9</f>
+        <v>19.7</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2850,19 +2854,23 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>60.667741935483875</v>
       </c>
       <c r="N26" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>19.700000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45164</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2877,20 +2885,24 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>106.86774193548388</v>
       </c>
       <c r="N27" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45165</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>15</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>17.12</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2904,19 +2916,23 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>73.087741935483876</v>
       </c>
       <c r="N28" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>32.120000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45166</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2931,11 +2947,11 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>91.967741935483872</v>
       </c>
       <c r="N29" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -3025,15 +3041,15 @@
       </c>
       <c r="B33" s="3">
         <f>SUM(B2:B32)</f>
-        <v>898.64</v>
+        <v>1059.04</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
-        <v>140.87</v>
+        <v>204.87</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>868.40000000000009</v>
+        <v>885.5200000000001</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
@@ -3069,11 +3085,11 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>4140.6100000000006</v>
+        <v>4382.130000000001</v>
       </c>
       <c r="N33" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>2736.6099999999997</v>
+        <v>2978.13</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3089,7 +3105,7 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>4140.6100000000006</v>
+        <v>4382.13</v>
       </c>
       <c r="M34" s="3"/>
     </row>

--- a/personal space(program)/accountBook.xlsx
+++ b/personal space(program)/accountBook.xlsx
@@ -5,20 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode1\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAF43C4-64F0-498B-A647-F418A1F89C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2EAB1F-D2DA-4395-BF75-C9F6496EA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023.07" sheetId="1" r:id="rId1"/>
     <sheet name="2023.08" sheetId="3" r:id="rId2"/>
-    <sheet name="年度总结" sheetId="2" r:id="rId3"/>
+    <sheet name="2023.09 " sheetId="4" r:id="rId3"/>
+    <sheet name="年度总结" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>合计（）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2+3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +190,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="93">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -304,13 +300,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -324,123 +313,6 @@
       </fill>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -449,6 +321,258 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -464,25 +588,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}" name="表2" displayName="表2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="36" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{59D84569-A8BB-46A5-9CBC-5EF68588EE35}" name="日期" dataDxfId="90" totalsRowDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{2C662677-3D8C-4D8B-AE1F-E2248B7ABFF7}" name="吃饭" dataDxfId="88" totalsRowDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{AE70D7D4-9857-40D5-8BEB-34BF0C4CCA7A}" name="馋" dataDxfId="86" totalsRowDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{F3975E93-63B6-478C-B0F2-56460FBF1A23}" name="小余" dataDxfId="84" totalsRowDxfId="83"/>
+    <tableColumn id="5" xr3:uid="{94F8752A-FBB0-4CE8-9D51-6324D8BBC87E}" name="生活" dataDxfId="82" totalsRowDxfId="81"/>
+    <tableColumn id="15" xr3:uid="{30FDD512-0876-4E61-969E-6DA35E286B2C}" name="交通" dataDxfId="80" totalsRowDxfId="79"/>
+    <tableColumn id="6" xr3:uid="{5C513997-5C16-4839-95D1-22245123DE2F}" name="爱好" dataDxfId="78" totalsRowDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{9E859D1E-EC02-49A9-BD03-97B27BCE859E}" name="房租" dataDxfId="76" totalsRowDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{EB58BFC7-02DA-46D2-AAFC-A0BA1323BE9D}" name="水电话费" dataDxfId="74" totalsRowDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{A2A17D77-95A1-459A-90A9-931CF7EEAF21}" name="懒" dataDxfId="72" totalsRowDxfId="71"/>
+    <tableColumn id="11" xr3:uid="{FFABE2C4-74EE-4656-838D-CB10D6D9D4E8}" name="玩" dataDxfId="70" totalsRowDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{570141E9-E92B-4C59-AD38-CCA1569BD90C}" name="学习阅读" totalsRowFunction="custom" dataDxfId="68" totalsRowDxfId="67">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="32" totalsRowDxfId="31">
+    <tableColumn id="13" xr3:uid="{39BD7172-0D5C-49D9-87F6-B35B3F5628DB}" name="合计" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{D46BD491-9DFD-4738-8C08-9D38C5B47D89}" name="合计（）" dataDxfId="64" totalsRowDxfId="63">
       <calculatedColumnFormula>表2[[#This Row],[合计]]-表2[[#This Row],[房租]]-表2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -491,26 +615,53 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28979AE8-8FE8-4D5C-A353-102BE1BAAE12}" name="表2_2" displayName="表2_2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28979AE8-8FE8-4D5C-A353-102BE1BAAE12}" name="表2_2" displayName="表2_2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{8EFDB2AF-8F71-473F-952D-5B3939994D62}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{67957270-9623-4926-BD21-279E13650B9D}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{CF94BF01-577B-4D56-9718-2A882C67816C}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{9AC0B1D1-A18C-408F-B2A5-F84F037716A3}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{A686B635-30A8-4007-8CF3-3DB3011DAF77}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{6CFBBB07-C37C-4D79-A12C-414587534DA0}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{24D9EDA0-727A-46BE-80BC-74C02A3CB95E}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{0E84B44C-BDDA-4215-B9F4-774FF36E7966}" name="房租" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{54FCCFC1-3319-44AA-AC44-A145B99BE9C0}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{8343B566-6FA6-4DE5-83A7-C25582E57B8F}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{890B9F61-AE91-4F7B-B12A-0E9647351958}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{6351BEBD-EE7C-4CBA-B22C-DB27DC0C3AE5}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{8EFDB2AF-8F71-473F-952D-5B3939994D62}" name="日期" dataDxfId="60" totalsRowDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{67957270-9623-4926-BD21-279E13650B9D}" name="吃饭" dataDxfId="59" totalsRowDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{CF94BF01-577B-4D56-9718-2A882C67816C}" name="馋" dataDxfId="58" totalsRowDxfId="44"/>
+    <tableColumn id="4" xr3:uid="{9AC0B1D1-A18C-408F-B2A5-F84F037716A3}" name="小余" dataDxfId="57" totalsRowDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{A686B635-30A8-4007-8CF3-3DB3011DAF77}" name="生活" dataDxfId="56" totalsRowDxfId="42"/>
+    <tableColumn id="15" xr3:uid="{6CFBBB07-C37C-4D79-A12C-414587534DA0}" name="交通" dataDxfId="55" totalsRowDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{24D9EDA0-727A-46BE-80BC-74C02A3CB95E}" name="爱好" dataDxfId="54" totalsRowDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{0E84B44C-BDDA-4215-B9F4-774FF36E7966}" name="房租" dataDxfId="53" totalsRowDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{54FCCFC1-3319-44AA-AC44-A145B99BE9C0}" name="水电话费" dataDxfId="52" totalsRowDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{8343B566-6FA6-4DE5-83A7-C25582E57B8F}" name="懒" dataDxfId="51" totalsRowDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{890B9F61-AE91-4F7B-B12A-0E9647351958}" name="玩" dataDxfId="50" totalsRowDxfId="36"/>
+    <tableColumn id="10" xr3:uid="{6351BEBD-EE7C-4CBA-B22C-DB27DC0C3AE5}" name="学习阅读" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="35">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CADD3192-7B6B-481D-A759-D50120453C7E}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{A2A2A465-6515-47EA-A81E-495686796A22}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{CADD3192-7B6B-481D-A759-D50120453C7E}" name="合计" dataDxfId="48" totalsRowDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{A2A2A465-6515-47EA-A81E-495686796A22}" name="合计（）" dataDxfId="47" totalsRowDxfId="33">
       <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E1BFF27-E561-4214-A8E0-6C5272726145}" name="表2_24" displayName="表2_24" ref="A1:N33" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
+  <autoFilter ref="A1:N32" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{12A557A4-37D4-4B75-BD69-6373B0982791}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F9DE0F72-159C-46F5-A111-18EF4A51AFC6}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{072E4046-1750-4E7D-890E-BF2F960ED741}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{795FAAD6-D384-470B-87FA-13EB0BFECBD7}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5755CAFB-5F2F-4EF0-96B0-EB9500A1F71C}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{A4E1AE10-D3A7-4F0C-8C5F-43BE6370BCD7}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{10FBBB45-316A-43ED-A672-B17F4C77E3A5}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D8455C6C-91D9-4A92-805E-19417DC0BFA3}" name="房租" dataDxfId="20" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{672DEEF9-7132-4D99-86C1-DB8FEA73C90E}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B24B003F-4F93-4EA2-BD0D-E55842A5021F}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BB63150B-31A8-4C77-BDCD-2539BE3989F5}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{4D400E2D-8DB3-4E95-9DD8-6C8EF3F855BE}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{C40C81D7-6670-4FC4-81B6-53A6D6D6E02B}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{7ACA1FA8-6236-411B-B075-06470E3DC582}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+      <calculatedColumnFormula>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -782,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1960,7 +2111,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1976,8 +2127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E4A41-0545-4E98-A165-FDDA4B913E86}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2741,8 +2892,9 @@
         <f>8.3+15</f>
         <v>23.3</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>15</v>
+      <c r="C23" s="3">
+        <f>2+3</f>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>18.5</v>
@@ -2762,11 +2914,11 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>109.99774193548387</v>
+        <v>114.99774193548387</v>
       </c>
       <c r="N23" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>69.03</v>
+        <v>74.03</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -2805,8 +2957,13 @@
       <c r="A25" s="1">
         <v>45162</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="3">
+        <f>1.5+4+2+32.3+20</f>
+        <v>59.8</v>
+      </c>
+      <c r="C25" s="3">
+        <v>8</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2823,18 +2980,21 @@
       </c>
       <c r="M25" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>490.9677419354839</v>
+        <v>558.76774193548385</v>
       </c>
       <c r="N25" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>450</v>
+        <v>517.79999999999995</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>45163</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3">
+        <f>2.8+3+13.9</f>
+        <v>19.7</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2850,19 +3010,23 @@
       <c r="L26" s="3"/>
       <c r="M26" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>60.667741935483875</v>
       </c>
       <c r="N26" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>19.700000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>45164</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
+      <c r="B27" s="3">
+        <v>20.9</v>
+      </c>
+      <c r="C27" s="3">
+        <v>45</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2877,20 +3041,24 @@
       <c r="L27" s="3"/>
       <c r="M27" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>106.86774193548388</v>
       </c>
       <c r="N27" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>65.900000000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>45165</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3">
+        <v>15</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3">
+        <v>17.12</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -2904,19 +3072,23 @@
       <c r="L28" s="3"/>
       <c r="M28" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>73.087741935483876</v>
       </c>
       <c r="N28" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>32.120000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>45166</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2931,20 +3103,25 @@
       <c r="L29" s="3"/>
       <c r="M29" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>91.967741935483872</v>
       </c>
       <c r="N29" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>45167</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3">
+        <f>5.8+12.9+4+23.3</f>
+        <v>46</v>
+      </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3">
+        <v>23</v>
+      </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -2958,22 +3135,30 @@
       <c r="L30" s="3"/>
       <c r="M30" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>109.96774193548387</v>
       </c>
       <c r="N30" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>45168</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="3">
+        <v>25</v>
+      </c>
+      <c r="C31" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="D31" s="3">
+        <v>5</v>
+      </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="3">
+        <v>16</v>
+      </c>
       <c r="G31" s="3"/>
       <c r="H31" s="3">
         <f t="shared" si="0"/>
@@ -2985,21 +3170,28 @@
       <c r="L31" s="3"/>
       <c r="M31" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>96.867741935483878</v>
       </c>
       <c r="N31" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>55.900000000000006</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>45169</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
+      <c r="B32" s="3">
+        <f>8+13.9</f>
+        <v>21.9</v>
+      </c>
+      <c r="C32" s="3">
+        <v>5</v>
+      </c>
       <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="E32" s="3">
+        <v>19.899999999999999</v>
+      </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3">
@@ -3012,11 +3204,11 @@
       <c r="L32" s="3"/>
       <c r="M32" s="3">
         <f>SUM(表2_2[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>40.967741935483872</v>
+        <v>87.767741935483869</v>
       </c>
       <c r="N32" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>0</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
@@ -3024,24 +3216,24 @@
         <v>11</v>
       </c>
       <c r="B33" s="3">
-        <f>SUM(B2:B32)</f>
-        <v>898.64</v>
+        <f>SUM(B2:B31)</f>
+        <v>1130.04</v>
       </c>
       <c r="C33" s="3">
         <f t="shared" ref="C33:I33" si="1">SUM(C2:C32)</f>
-        <v>140.87</v>
+        <v>219.77</v>
       </c>
       <c r="D33" s="3">
         <f>SUM(D2:D32)</f>
-        <v>868.40000000000009</v>
+        <v>913.5200000000001</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>303.30999999999995</v>
+        <v>323.20999999999992</v>
       </c>
       <c r="F33" s="3">
         <f>SUM(F2:F32)</f>
-        <v>66.89</v>
+        <v>82.89</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="1"/>
@@ -3069,11 +3261,11 @@
       </c>
       <c r="M33" s="5">
         <f>SUM(M2:M32)</f>
-        <v>4140.6100000000006</v>
+        <v>4553.8300000000008</v>
       </c>
       <c r="N33" s="3">
         <f>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</f>
-        <v>2736.6099999999997</v>
+        <v>3149.83</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -3089,14 +3281,14 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3">
         <f>SUM(B33:L33)</f>
-        <v>4140.6100000000006</v>
+        <v>4531.93</v>
       </c>
       <c r="M34" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3109,6 +3301,978 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F7953F-0F55-4394-A33F-6D490E20FFA3}">
+  <dimension ref="A1:P33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="13.77734375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.77734375" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B2" s="3">
+        <f>14+105+3+25</f>
+        <v>147</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>13.1+5</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
+        <f>1366.66/30</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I2" s="3">
+        <v>80</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>292.65533333333332</v>
+      </c>
+      <c r="N2" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>167.09999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>45171</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H31" si="0">1366.66/30</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N3" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45172</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N4" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45173</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N5" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45174</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N6" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>45175</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N7" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>45176</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N8" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>45177</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N9" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>45178</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N10" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N11" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>45180</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N12" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="6"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>45181</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N13" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>45182</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N14" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>45183</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N15" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>45184</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N16" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>45185</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N17" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>45186</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N18" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45187</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N19" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45188</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N20" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45189</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N21" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45190</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N22" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45191</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N23" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45192</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N24" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>45193</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N25" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>45194</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N26" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>45195</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N27" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>45196</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N28" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>45197</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N29" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>45198</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N30" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>45199</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3">
+        <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
+        <v>45.555333333333337</v>
+      </c>
+      <c r="N31" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3">
+        <f>SUM(B2:B31)</f>
+        <v>147</v>
+      </c>
+      <c r="C32" s="3">
+        <f>SUM(C2:C31)</f>
+        <v>2</v>
+      </c>
+      <c r="D32" s="3">
+        <f>SUM(D2:D31)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <f>SUM(E2:E31)</f>
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F32" s="3">
+        <f>SUM(F2:F31)</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <f>SUM(G2:G31)</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <f>SUM(H2:H31)</f>
+        <v>1366.6599999999996</v>
+      </c>
+      <c r="I32" s="3">
+        <f>SUM(I2:I31)</f>
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
+        <f>SUM(J2:J31)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <f>SUM(K2:K31)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <f>SUM(L2:L31)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="5">
+        <f>SUM(M2:M31)</f>
+        <v>1613.7599999999991</v>
+      </c>
+      <c r="N32" s="3">
+        <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
+        <v>167.09999999999945</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
+        <f>SUM(B32:L32)</f>
+        <v>1613.7599999999995</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N31">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+      <formula>50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C952A621-BEBB-4D1D-8745-086E36D656C9}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/personal space(program)/accountBook.xlsx
+++ b/personal space(program)/accountBook.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode1\zhubiye\personal space(program)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitcode\zhubiye\personal space(program)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2EAB1F-D2DA-4395-BF75-C9F6496EA451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E63B8-6C26-415E-B15F-EB5A18E413F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,8 @@
     <sheet name="2023.08" sheetId="3" r:id="rId2"/>
     <sheet name="2023.09 " sheetId="4" r:id="rId3"/>
     <sheet name="年度总结" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -247,62 +249,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -337,9 +283,117 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -392,58 +446,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -618,22 +620,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28979AE8-8FE8-4D5C-A353-102BE1BAAE12}" name="表2_2" displayName="表2_2" ref="A1:N34" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61">
   <autoFilter ref="A1:N33" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{8EFDB2AF-8F71-473F-952D-5B3939994D62}" name="日期" dataDxfId="60" totalsRowDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{67957270-9623-4926-BD21-279E13650B9D}" name="吃饭" dataDxfId="59" totalsRowDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{CF94BF01-577B-4D56-9718-2A882C67816C}" name="馋" dataDxfId="58" totalsRowDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{9AC0B1D1-A18C-408F-B2A5-F84F037716A3}" name="小余" dataDxfId="57" totalsRowDxfId="43"/>
-    <tableColumn id="5" xr3:uid="{A686B635-30A8-4007-8CF3-3DB3011DAF77}" name="生活" dataDxfId="56" totalsRowDxfId="42"/>
-    <tableColumn id="15" xr3:uid="{6CFBBB07-C37C-4D79-A12C-414587534DA0}" name="交通" dataDxfId="55" totalsRowDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{24D9EDA0-727A-46BE-80BC-74C02A3CB95E}" name="爱好" dataDxfId="54" totalsRowDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{0E84B44C-BDDA-4215-B9F4-774FF36E7966}" name="房租" dataDxfId="53" totalsRowDxfId="39"/>
-    <tableColumn id="8" xr3:uid="{54FCCFC1-3319-44AA-AC44-A145B99BE9C0}" name="水电话费" dataDxfId="52" totalsRowDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{8343B566-6FA6-4DE5-83A7-C25582E57B8F}" name="懒" dataDxfId="51" totalsRowDxfId="37"/>
-    <tableColumn id="11" xr3:uid="{890B9F61-AE91-4F7B-B12A-0E9647351958}" name="玩" dataDxfId="50" totalsRowDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{6351BEBD-EE7C-4CBA-B22C-DB27DC0C3AE5}" name="学习阅读" totalsRowFunction="custom" dataDxfId="49" totalsRowDxfId="35">
+    <tableColumn id="1" xr3:uid="{8EFDB2AF-8F71-473F-952D-5B3939994D62}" name="日期" dataDxfId="60" totalsRowDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{67957270-9623-4926-BD21-279E13650B9D}" name="吃饭" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{CF94BF01-577B-4D56-9718-2A882C67816C}" name="馋" dataDxfId="56" totalsRowDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{9AC0B1D1-A18C-408F-B2A5-F84F037716A3}" name="小余" dataDxfId="54" totalsRowDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{A686B635-30A8-4007-8CF3-3DB3011DAF77}" name="生活" dataDxfId="52" totalsRowDxfId="51"/>
+    <tableColumn id="15" xr3:uid="{6CFBBB07-C37C-4D79-A12C-414587534DA0}" name="交通" dataDxfId="50" totalsRowDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{24D9EDA0-727A-46BE-80BC-74C02A3CB95E}" name="爱好" dataDxfId="48" totalsRowDxfId="47"/>
+    <tableColumn id="7" xr3:uid="{0E84B44C-BDDA-4215-B9F4-774FF36E7966}" name="房租" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="8" xr3:uid="{54FCCFC1-3319-44AA-AC44-A145B99BE9C0}" name="水电话费" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{8343B566-6FA6-4DE5-83A7-C25582E57B8F}" name="懒" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{890B9F61-AE91-4F7B-B12A-0E9647351958}" name="玩" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{6351BEBD-EE7C-4CBA-B22C-DB27DC0C3AE5}" name="学习阅读" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="37">
       <totalsRowFormula>SUM(B33:L33)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{CADD3192-7B6B-481D-A759-D50120453C7E}" name="合计" dataDxfId="48" totalsRowDxfId="34"/>
-    <tableColumn id="12" xr3:uid="{A2A2A465-6515-47EA-A81E-495686796A22}" name="合计（）" dataDxfId="47" totalsRowDxfId="33">
+    <tableColumn id="13" xr3:uid="{CADD3192-7B6B-481D-A759-D50120453C7E}" name="合计" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{A2A2A465-6515-47EA-A81E-495686796A22}" name="合计（）" dataDxfId="34" totalsRowDxfId="33">
       <calculatedColumnFormula>表2_2[[#This Row],[合计]]-表2_2[[#This Row],[房租]]-表2_2[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -645,22 +647,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4E1BFF27-E561-4214-A8E0-6C5272726145}" name="表2_24" displayName="表2_24" ref="A1:N33" totalsRowCount="1" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="A1:N32" xr:uid="{62DBF428-EA6E-4F16-A2E5-492FB36A65B6}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{12A557A4-37D4-4B75-BD69-6373B0982791}" name="日期" dataDxfId="27" totalsRowDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{F9DE0F72-159C-46F5-A111-18EF4A51AFC6}" name="吃饭" dataDxfId="26" totalsRowDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{072E4046-1750-4E7D-890E-BF2F960ED741}" name="馋" dataDxfId="25" totalsRowDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{795FAAD6-D384-470B-87FA-13EB0BFECBD7}" name="小余" dataDxfId="24" totalsRowDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5755CAFB-5F2F-4EF0-96B0-EB9500A1F71C}" name="生活" dataDxfId="23" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{A4E1AE10-D3A7-4F0C-8C5F-43BE6370BCD7}" name="交通" dataDxfId="22" totalsRowDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{10FBBB45-316A-43ED-A672-B17F4C77E3A5}" name="爱好" dataDxfId="21" totalsRowDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{D8455C6C-91D9-4A92-805E-19417DC0BFA3}" name="房租" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{672DEEF9-7132-4D99-86C1-DB8FEA73C90E}" name="水电话费" dataDxfId="19" totalsRowDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{B24B003F-4F93-4EA2-BD0D-E55842A5021F}" name="懒" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{BB63150B-31A8-4C77-BDCD-2539BE3989F5}" name="玩" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{4D400E2D-8DB3-4E95-9DD8-6C8EF3F855BE}" name="学习阅读" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{12A557A4-37D4-4B75-BD69-6373B0982791}" name="日期" dataDxfId="30" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{F9DE0F72-159C-46F5-A111-18EF4A51AFC6}" name="吃饭" dataDxfId="29" totalsRowDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{072E4046-1750-4E7D-890E-BF2F960ED741}" name="馋" dataDxfId="28" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{795FAAD6-D384-470B-87FA-13EB0BFECBD7}" name="小余" dataDxfId="27" totalsRowDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{5755CAFB-5F2F-4EF0-96B0-EB9500A1F71C}" name="生活" dataDxfId="26" totalsRowDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{A4E1AE10-D3A7-4F0C-8C5F-43BE6370BCD7}" name="交通" dataDxfId="25" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{10FBBB45-316A-43ED-A672-B17F4C77E3A5}" name="爱好" dataDxfId="24" totalsRowDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{D8455C6C-91D9-4A92-805E-19417DC0BFA3}" name="房租" dataDxfId="23" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{672DEEF9-7132-4D99-86C1-DB8FEA73C90E}" name="水电话费" dataDxfId="22" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{B24B003F-4F93-4EA2-BD0D-E55842A5021F}" name="懒" dataDxfId="21" totalsRowDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{BB63150B-31A8-4C77-BDCD-2539BE3989F5}" name="玩" dataDxfId="20" totalsRowDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{4D400E2D-8DB3-4E95-9DD8-6C8EF3F855BE}" name="学习阅读" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="2">
       <totalsRowFormula>SUM(B32:L32)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C40C81D7-6670-4FC4-81B6-53A6D6D6E02B}" name="合计" dataDxfId="15" totalsRowDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{7ACA1FA8-6236-411B-B075-06470E3DC582}" name="合计（）" dataDxfId="14" totalsRowDxfId="0">
+    <tableColumn id="13" xr3:uid="{C40C81D7-6670-4FC4-81B6-53A6D6D6E02B}" name="合计" dataDxfId="18" totalsRowDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{7ACA1FA8-6236-411B-B075-06470E3DC582}" name="合计（）" dataDxfId="17" totalsRowDxfId="0">
       <calculatedColumnFormula>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -933,21 +935,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.77734375" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45108</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>162.19999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45109</v>
       </c>
@@ -1062,7 +1065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45110</v>
       </c>
@@ -1096,7 +1099,7 @@
         <v>171.29</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45111</v>
       </c>
@@ -1134,7 +1137,7 @@
         <v>73.2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45112</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>29.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45113</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>71.7</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45114</v>
       </c>
@@ -1235,7 +1238,7 @@
         <v>318.89999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45115</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45116</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>173.56</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45117</v>
       </c>
@@ -1344,7 +1347,7 @@
         <v>254.5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45118</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>54.900000000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45119</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>22.599999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45120</v>
       </c>
@@ -1447,7 +1450,7 @@
         <v>72.650000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45121</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>35.090000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45122</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>1621.88</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45123</v>
       </c>
@@ -1544,7 +1547,7 @@
         <v>21.599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45124</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>37.36</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45125</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>23.710000000000008</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45126</v>
       </c>
@@ -1644,7 +1647,7 @@
         <v>109.5</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45127</v>
       </c>
@@ -1679,7 +1682,7 @@
         <v>92.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45128</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>42.870000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45129</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>17.700000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45130</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45131</v>
       </c>
@@ -1810,7 +1813,7 @@
         <v>73.150000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45132</v>
       </c>
@@ -1845,7 +1848,7 @@
         <v>54.5</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45133</v>
       </c>
@@ -1876,7 +1879,7 @@
         <v>73.59</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45134</v>
       </c>
@@ -1907,7 +1910,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45135</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>37.400000000000006</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45136</v>
       </c>
@@ -1974,7 +1977,7 @@
         <v>136.6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45137</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>10.670000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45138</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -2091,7 +2094,7 @@
         <v>4052.5199999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -2111,7 +2114,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2127,21 +2130,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11E4A41-0545-4E98-A165-FDDA4B913E86}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.77734375" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45139</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>343.88</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45140</v>
       </c>
@@ -2252,7 +2256,7 @@
         <v>35.11</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45141</v>
       </c>
@@ -2286,7 +2290,7 @@
         <v>30.689999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45142</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>55.819999999999993</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45143</v>
       </c>
@@ -2352,7 +2356,7 @@
         <v>178.7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45144</v>
       </c>
@@ -2388,7 +2392,7 @@
         <v>71.89</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45145</v>
       </c>
@@ -2421,7 +2425,7 @@
         <v>55.5</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45146</v>
       </c>
@@ -2455,7 +2459,7 @@
         <v>47.3</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45147</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45148</v>
       </c>
@@ -2522,7 +2526,7 @@
         <v>221.89999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45149</v>
       </c>
@@ -2559,7 +2563,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45150</v>
       </c>
@@ -2590,7 +2594,7 @@
         <v>65.17</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45151</v>
       </c>
@@ -2621,7 +2625,7 @@
         <v>77.7</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45152</v>
       </c>
@@ -2653,7 +2657,7 @@
         <v>85.29</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45153</v>
       </c>
@@ -2686,7 +2690,7 @@
         <v>23.299999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45154</v>
       </c>
@@ -2718,7 +2722,7 @@
         <v>39.599999999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45155</v>
       </c>
@@ -2749,7 +2753,7 @@
         <v>21.799999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45156</v>
       </c>
@@ -2781,7 +2785,7 @@
         <v>64.099999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45157</v>
       </c>
@@ -2816,7 +2820,7 @@
         <v>466.79999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45158</v>
       </c>
@@ -2849,7 +2853,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45159</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45160</v>
       </c>
@@ -2921,7 +2925,7 @@
         <v>74.03</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45161</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>39.200000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45162</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v>517.79999999999995</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45163</v>
       </c>
@@ -3017,7 +3021,7 @@
         <v>19.700000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45164</v>
       </c>
@@ -3048,7 +3052,7 @@
         <v>65.900000000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45165</v>
       </c>
@@ -3079,7 +3083,7 @@
         <v>32.120000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45166</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45167</v>
       </c>
@@ -3142,7 +3146,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45168</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>55.900000000000006</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>45169</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>46.8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>11</v>
       </c>
@@ -3268,7 +3272,7 @@
         <v>3149.83</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -3288,7 +3292,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N32">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3304,21 +3308,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F7953F-0F55-4394-A33F-6D490E20FFA3}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="13.77734375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" style="2" customWidth="1"/>
-    <col min="14" max="28" width="15.77734375" style="2" customWidth="1"/>
-    <col min="29" max="16384" width="8.88671875" style="2"/>
+    <col min="2" max="9" width="13.75" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.75" style="2" customWidth="1"/>
+    <col min="14" max="28" width="15.75" style="2" customWidth="1"/>
+    <col min="29" max="16384" width="8.9140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3362,7 +3367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45170</v>
       </c>
@@ -3399,16 +3404,22 @@
         <v>167.09999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45171</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3">
+        <v>22.44</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3">
+        <v>24.58</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>6.5</v>
+      </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H31" si="0">1366.66/30</f>
         <v>45.555333333333337</v>
@@ -3419,21 +3430,27 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3">
         <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45.555333333333337</v>
+        <v>99.075333333333333</v>
       </c>
       <c r="N3" s="3">
         <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>53.519999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45172</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="3">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3">
+        <v>13</v>
+      </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3">
@@ -3446,19 +3463,23 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3">
         <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45.555333333333337</v>
+        <v>123.55533333333334</v>
       </c>
       <c r="N4" s="3">
         <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45173</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="3">
+        <v>17.03</v>
+      </c>
+      <c r="C5" s="3">
+        <v>5</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -3473,14 +3494,14 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3">
         <f>SUM(表2_24[[#This Row],[吃饭]:[学习阅读]])</f>
-        <v>45.555333333333337</v>
+        <v>67.585333333333338</v>
       </c>
       <c r="N5" s="3">
         <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45174</v>
       </c>
@@ -3507,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>45175</v>
       </c>
@@ -3534,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>45176</v>
       </c>
@@ -3561,7 +3582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>45177</v>
       </c>
@@ -3588,7 +3609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>45178</v>
       </c>
@@ -3615,7 +3636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>45179</v>
       </c>
@@ -3642,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>45180</v>
       </c>
@@ -3670,7 +3691,7 @@
       </c>
       <c r="P12" s="6"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>45181</v>
       </c>
@@ -3697,7 +3718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>45182</v>
       </c>
@@ -3724,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>45183</v>
       </c>
@@ -3751,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>45184</v>
       </c>
@@ -3778,7 +3799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45185</v>
       </c>
@@ -3805,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45186</v>
       </c>
@@ -3832,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>45187</v>
       </c>
@@ -3859,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>45188</v>
       </c>
@@ -3886,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>45189</v>
       </c>
@@ -3913,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>45190</v>
       </c>
@@ -3940,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>45191</v>
       </c>
@@ -3967,7 +3988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>45192</v>
       </c>
@@ -3994,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>45193</v>
       </c>
@@ -4021,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>45194</v>
       </c>
@@ -4048,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>45195</v>
       </c>
@@ -4075,7 +4096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>45196</v>
       </c>
@@ -4102,7 +4123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>45197</v>
       </c>
@@ -4129,7 +4150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>45198</v>
       </c>
@@ -4156,7 +4177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>45199</v>
       </c>
@@ -4183,64 +4204,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="37.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="3">
-        <f>SUM(B2:B31)</f>
-        <v>147</v>
+        <f t="shared" ref="B32:M32" si="1">SUM(B2:B31)</f>
+        <v>221.47</v>
       </c>
       <c r="C32" s="3">
-        <f>SUM(C2:C31)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
       <c r="D32" s="3">
-        <f>SUM(D2:D31)</f>
+        <f>SUM(D3:D31)</f>
+        <v>24.58</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="1"/>
+        <v>48.1</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E32" s="3">
-        <f>SUM(E2:E31)</f>
-        <v>18.100000000000001</v>
-      </c>
-      <c r="F32" s="3">
-        <f>SUM(F2:F31)</f>
+      <c r="G32" s="3">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="1"/>
+        <v>1366.6599999999996</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G32" s="3">
-        <f>SUM(G2:G31)</f>
+      <c r="K32" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="3">
-        <f>SUM(H2:H31)</f>
-        <v>1366.6599999999996</v>
-      </c>
-      <c r="I32" s="3">
-        <f>SUM(I2:I31)</f>
-        <v>80</v>
-      </c>
-      <c r="J32" s="3">
-        <f>SUM(J2:J31)</f>
+      <c r="L32" s="3">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K32" s="3">
-        <f>SUM(K2:K31)</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <f>SUM(L2:L31)</f>
-        <v>0</v>
-      </c>
       <c r="M32" s="5">
-        <f>SUM(M2:M31)</f>
-        <v>1613.7599999999991</v>
+        <f t="shared" si="1"/>
+        <v>1767.3099999999986</v>
       </c>
       <c r="N32" s="3">
         <f>表2_24[[#This Row],[合计]]-表2_24[[#This Row],[房租]]-表2_24[[#This Row],[水电话费]]</f>
-        <v>167.09999999999945</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+        <v>320.64999999999895</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -4253,14 +4274,14 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3">
         <f>SUM(B32:L32)</f>
-        <v>1613.7599999999995</v>
+        <v>1767.3099999999997</v>
       </c>
       <c r="M33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N31">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="greaterThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4280,7 +4301,35 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F5637E-20A1-42F8-9A96-ABF28CD2DAFA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{518DD7B2-55BA-4C2A-825A-FD23F1457CDC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
